--- a/PPC Die.xlsx
+++ b/PPC Die.xlsx
@@ -353,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,6 +406,26 @@
         <v>1296</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>699</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
